--- a/data/trans_bre/CoPsoQ_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.602258216473402</v>
+        <v>-9.897960611278087</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8600879381032878</v>
+        <v>0.2058191156147085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.90697425724854</v>
+        <v>-17.45448425330293</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2991239840403475</v>
+        <v>-0.3015063924158094</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03409372855554214</v>
+        <v>0.004267041700892866</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.463714782357806</v>
+        <v>-0.4608178612358266</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.173281838417866</v>
+        <v>8.431411026937949</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.08340339902228</v>
+        <v>17.16553039453229</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.82310974627253</v>
+        <v>12.67359740251744</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.3575105674923839</v>
+        <v>0.3556001314416906</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9047704524077835</v>
+        <v>0.9364593217468555</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5865496771731697</v>
+        <v>0.6520208075367737</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.134563380319057</v>
+        <v>-5.043680703970154</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.415049514798968</v>
+        <v>-2.388334603562956</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-15.24457988550008</v>
+        <v>-14.60301762782592</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2060321457018235</v>
+        <v>-0.2027910997042317</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1585012302363034</v>
+        <v>-0.1090695179380576</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.460963854253278</v>
+        <v>-0.4463505796863171</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.395930240496304</v>
+        <v>8.816370955876625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.17832270659383</v>
+        <v>9.506843937980545</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.702832525318225</v>
+        <v>6.49362963757344</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4842938657508931</v>
+        <v>0.4487223178939473</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5858904777253021</v>
+        <v>0.5338945637840353</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2988486521662908</v>
+        <v>0.337026082918158</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-3.386133809218059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.306487393539578</v>
+        <v>-6.306487393539584</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.0306392114040736</v>
@@ -791,7 +791,7 @@
         <v>-0.1825075129496685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1760550897295341</v>
+        <v>-0.1760550897295342</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.683380421710114</v>
+        <v>-6.290741892615852</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.510663996464915</v>
+        <v>-9.894311000656456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.29502092296747</v>
+        <v>-21.99196065288792</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3055268451984204</v>
+        <v>-0.3071904536295038</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.435557915286329</v>
+        <v>-0.4421393943738092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4949780469069704</v>
+        <v>-0.5035610915351461</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.139503090218323</v>
+        <v>8.063075306620123</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.754726589294335</v>
+        <v>2.556889592486959</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.661222907257777</v>
+        <v>7.710745480990891</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.5064160523637081</v>
+        <v>0.5054535712448138</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1954889426893455</v>
+        <v>0.188690345860739</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3437015629710024</v>
+        <v>0.2806690456053411</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-3.13214414015634</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9348604204680422</v>
+        <v>0.9348604204680311</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.08580433347530361</v>
@@ -873,7 +873,7 @@
         <v>-0.1104333764985673</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02305626325950564</v>
+        <v>0.02305626325950537</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.724657534137897</v>
+        <v>-5.065175902363845</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.0689902291552</v>
+        <v>-9.598777278130076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.8640734011164</v>
+        <v>-11.5554546320901</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1897596986227294</v>
+        <v>-0.2100414728327397</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3196242187906859</v>
+        <v>-0.3085221423929221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2765074225828578</v>
+        <v>-0.2577678946419117</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.299550109500498</v>
+        <v>9.164694535546285</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.755087696933179</v>
+        <v>4.088051950216686</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.28343387368299</v>
+        <v>14.47061272233273</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4641268259489453</v>
+        <v>0.5016765366122771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1533747547749108</v>
+        <v>0.1642126758730897</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3877150257656042</v>
+        <v>0.461110730700714</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.5866718116070757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.791178039239584</v>
+        <v>-2.791178039239595</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.04743113211644422</v>
@@ -955,7 +955,7 @@
         <v>0.02615018672846372</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.08538200796672671</v>
+        <v>-0.08538200796672704</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.666244653830514</v>
+        <v>-2.610362693168111</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.903244985734273</v>
+        <v>-2.722900070936374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.633445857815909</v>
+        <v>-9.922755122359867</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1106091249681924</v>
+        <v>-0.1080472432253105</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1197775862730359</v>
+        <v>-0.1147954721535139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2571017038856994</v>
+        <v>-0.267176556590878</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.824917833565541</v>
+        <v>4.455446203866478</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.286133320008564</v>
+        <v>4.214181192366294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.898316630022146</v>
+        <v>3.711613296989409</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2333998858409406</v>
+        <v>0.2090568434267266</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.209676175417286</v>
+        <v>0.1977592764569945</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1357947543625175</v>
+        <v>0.1304781820171173</v>
       </c>
     </row>
     <row r="19">
